--- a/DesignerConfigs/Datas/item.xlsx
+++ b/DesignerConfigs/Datas/item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Next\Data\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Next\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,7 +645,7 @@
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1101,6 +1105,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/item.xlsx
+++ b/DesignerConfigs/Datas/item.xlsx
@@ -24,30 +24,6 @@
     <t>##var</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -108,30 +84,6 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -241,6 +193,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +605,7 @@
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,22 +627,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -748,25 +708,25 @@
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="9"/>
@@ -796,17 +756,17 @@
     </row>
     <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="9"/>
@@ -836,25 +796,25 @@
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
@@ -887,16 +847,16 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -909,16 +869,16 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -931,16 +891,16 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -953,19 +913,19 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="5"/>
@@ -975,19 +935,19 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
@@ -997,19 +957,19 @@
         <v>10005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
@@ -1019,19 +979,19 @@
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="5"/>
@@ -1041,10 +1001,10 @@
         <v>10007</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>200</v>
@@ -1063,10 +1023,10 @@
         <v>10008</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1085,16 +1045,16 @@
         <v>10009</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>

--- a/DesignerConfigs/Datas/item.xlsx
+++ b/DesignerConfigs/Datas/item.xlsx
@@ -19,68 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>expire_time</t>
-  </si>
-  <si>
-    <t>batch_useable</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>datetime?</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -90,117 +39,43 @@
     <t>描述</t>
   </si>
   <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>能否批量使用</t>
-  </si>
-  <si>
     <t>发型</t>
   </si>
   <si>
     <t>初始发型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ull</t>
-    </r>
-  </si>
-  <si>
     <t>外套</t>
   </si>
   <si>
     <t>初始外套</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>初始上衣</t>
-  </si>
-  <si>
-    <t>裙子</t>
-  </si>
-  <si>
-    <t>初始下装</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>袜子</t>
-  </si>
-  <si>
-    <t>初始袜子</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>初始鞋子</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>发饰</t>
-  </si>
-  <si>
-    <t>初始发饰</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>中秋节发饰</t>
-  </si>
-  <si>
-    <t>中秋节鞋子</t>
-  </si>
-  <si>
-    <t>礼包</t>
-  </si>
-  <si>
-    <t>中秋节礼包</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>这是key</t>
+    <t>道具甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具乙</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -325,6 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -602,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,23 +503,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -670,19 +540,25 @@
       <c r="AE1"/>
       <c r="AF1"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="7"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -706,31 +582,25 @@
       <c r="AE2"/>
       <c r="AF2"/>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="4"/>
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="7"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -754,313 +624,80 @@
       <c r="AE3"/>
       <c r="AF3"/>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="H7" s="5"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>10002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="H8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>10003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>10006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="6"/>
       <c r="H12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44479.999988425901</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>10008</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14" s="6">
-        <v>44480.999988425901</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>10009</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
